--- a/resources/experiment 2/metrics/MAPE/average time/Ceguera.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Ceguera.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08397436958355874</v>
+        <v>0.02924799644477622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08397436958355874</v>
+        <v>0.0313402629370561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08397436958355874</v>
+        <v>0.05462273480529092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02531040495601843</v>
+        <v>0.03224366651710333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02531040495601843</v>
+        <v>0.03429022045241648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02531040495601843</v>
+        <v>0.08101672222199238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.164421292409762</v>
+        <v>0.02504122812745007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.164421292409762</v>
+        <v>0.0252378950374292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164421292409762</v>
+        <v>0.02766330195057139</v>
       </c>
     </row>
   </sheetData>
